--- a/application/controllers/excel-templates/bracket_credit_note.xlsx
+++ b/application/controllers/excel-templates/bracket_credit_note.xlsx
@@ -421,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -429,15 +429,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -507,53 +498,74 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -561,25 +573,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -862,7 +859,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B2" sqref="B2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14" zeroHeight="1" x14ac:dyDescent="0.15"/>
@@ -876,6 +873,7 @@
     <col min="7" max="7" width="10" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="2.5" customWidth="1"/>
+    <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
     <col min="11" max="16384" width="8.83203125" hidden="1"/>
   </cols>
   <sheetData>
@@ -889,296 +887,296 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="30" t="s">
+      <c r="B2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="52"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="38" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="39"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="14" t="s">
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="8"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="48" t="s">
+      <c r="C15" s="41"/>
+      <c r="D15" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="48" t="s">
+      <c r="E15" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="49" t="s">
+      <c r="F15" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="49" t="s">
+      <c r="G15" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="42" t="s">
+      <c r="H15" s="29" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="50" t="s">
+      <c r="C16" s="43"/>
+      <c r="D16" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="51"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="53" t="s">
+      <c r="E16" s="35"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="8"/>
+      <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="40" t="s">
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="H17" s="19"/>
+      <c r="H17" s="16"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="8"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="8"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="41" t="s">
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="22"/>
+      <c r="H20" s="19"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="43" t="s">
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="30" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="47" t="s">
+      <c r="C23" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="46"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="50"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15"/>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15"/>
@@ -1189,8 +1187,8 @@
     <row r="31" spans="1:8" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B2:H2"/>
     <mergeCell ref="B24:H24"/>
-    <mergeCell ref="C2:F2"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B5:D6"/>
